--- a/biology/Botanique/Giovanni_Girolamo_Zannichelli/Giovanni_Girolamo_Zannichelli.xlsx
+++ b/biology/Botanique/Giovanni_Girolamo_Zannichelli/Giovanni_Girolamo_Zannichelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Girolamo Zannichelli ou Gian Girolamo Zannichelli (en latin : Joannes Hieronymus Zannichellius) est un pharmacologue, chimiste et botaniste italien, né à Spilamberto, province de Modène en avril 1662, et mort à Venise le 11 février 1729.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'Antonio Zannichelli, bourgeois de Modène. Il a fait ses études dans sa patrie puis à Venise à l'âge de 12 ans et s'est attaché à l'étude de la pharmacie. En 1684, à 18 ans, il est agrégé au Collège des apothicaires de Venise (Collegio degli Speciali). 
 En 1686, il devient propriétaire de l'apothicairerie (spezieria) du quartier de Santa Fosca, à l'enseigne de l' Ercole d'Oro. Il va se perfectionner dans la science de la chimie pharmaceutique. Il s'est aussi intéressé à la chimie transmutatoire mais sans insister dans cette recherche. En 1701, il obtient du magistrat de la santé un privilège pour distribuer les pilules appelées del Pievano et publie Promptuarium publia Remediorum Chymicorum, une compilation de plus de 100 remèdes à base de composants animaux, végétaux et minéraux qui va le rendre célèbre.
@@ -549,7 +563,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl von Linné nomme en son honneur le genre Zannichellia et la famille botanique des Zannichelliacées ou Zannichelliaceae.
 </t>
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Promptuarium publia Remediorum Chymicorum, Venise, 1701
 De ferro ejusque Nivis preparatione, Dissertatio Pysico-Chymica, in qua varia de ipso metallo explicantur, apud Andram Poleli, Venise, 1713 (lire en ligne).
